--- a/docs/部品選定・発注/購入申請(20210609).xlsx
+++ b/docs/部品選定・発注/購入申請(20210609).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プロジェクト演習4\docs\部品選定・発注\購入申請_試作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/kcg/4年/プロ演４/git/docs/部品選定・発注/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{20663ED1-1DEF-CA41-942C-E3F0273639C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C04BDC-D407-B44C-A369-21EB1E9B019B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{20663ED1-1DEF-CA41-942C-E3F0273639C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D9C840-A034-4B76-B97A-B3EB254C728C}"/>
   <bookViews>
-    <workbookView xWindow="-23160" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="購入リスト" sheetId="1" r:id="rId1"/>
@@ -474,6 +474,10 @@
   </si>
   <si>
     <t>クラス：R4A　学籍番号:R18E1002　氏名：正元　淳也</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gK-07728/</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1634,26 +1638,26 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99609375" defaultRowHeight="12" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.40625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.31640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.04296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.86328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.2265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.40625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.99609375" style="3"/>
+    <col min="1" max="1" width="3.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.07421875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.23046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.15234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>92</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1737,7 +1741,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="4" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1767,11 +1771,11 @@
         <v>51</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1797,7 +1801,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1823,7 +1827,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1836,7 +1840,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1870,7 +1874,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="9" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>6</v>
       </c>
@@ -1904,7 +1908,7 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1945,7 +1949,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="12" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" ref="H12:H13" si="1">F12*G12</f>
+        <f t="shared" ref="H12" si="1">F12*G12</f>
         <v>13640</v>
       </c>
       <c r="I12" s="20" t="s">
@@ -1979,7 +1983,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2020,7 +2024,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="15" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2054,7 +2058,7 @@
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="16" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="17" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2129,7 +2133,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>11</v>
       </c>
@@ -2147,13 +2151,13 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
     </row>
   </sheetData>
@@ -2167,10 +2171,11 @@
     <hyperlink ref="J3" r:id="rId2" xr:uid="{4CB55C53-D0B9-B14F-8E48-84824BB61E8D}"/>
     <hyperlink ref="J9" r:id="rId3" xr:uid="{1DFAC668-9E1B-D646-9F6C-D5509C3AC844}"/>
     <hyperlink ref="J12" r:id="rId4" xr:uid="{4DCF5905-2C90-E441-8F30-B5E40CC54DA9}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{A4AF9582-583B-462C-8398-EC60E52A923D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2182,23 +2187,23 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99609375" defaultRowHeight="12" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="70.76953125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.31640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.2265625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.04296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.99609375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.99609375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="75.1328125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="90.40625" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.99609375" style="3"/>
+    <col min="1" max="1" width="3.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="70.765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.3046875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.23046875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.07421875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="5.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21" style="14" customWidth="1"/>
+    <col min="10" max="10" width="75.15234375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="90.3828125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>39</v>
       </c>
@@ -2213,7 +2218,7 @@
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -2246,7 +2251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2280,7 +2285,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2308,7 +2313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2321,7 +2326,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="6" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2391,7 +2396,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>61</v>
@@ -2423,7 +2428,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="9" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -2457,7 +2462,7 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2498,7 +2503,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="12" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2532,7 +2537,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="13" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2566,7 +2571,7 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2592,7 +2597,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2618,7 +2623,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2631,7 +2636,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="17" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -2663,7 +2668,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="18" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2695,7 +2700,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2736,7 +2741,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="21" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
         <v>74</v>
@@ -2757,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="18">
-        <f>F21*G21</f>
+        <f t="shared" ref="H21:H26" si="3">F21*G21</f>
         <v>3840</v>
       </c>
       <c r="I21" s="20" t="s">
@@ -2768,7 +2773,7 @@
       </c>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="22" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
         <v>69</v>
@@ -2787,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="18">
-        <f>F22*G22</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="I22" s="20" t="s">
@@ -2798,7 +2803,7 @@
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="23" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
         <v>68</v>
@@ -2819,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="18">
-        <f>F23*G23</f>
+        <f t="shared" si="3"/>
         <v>1212</v>
       </c>
       <c r="I23" s="20" t="s">
@@ -2830,7 +2835,7 @@
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="24" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
         <v>86</v>
@@ -2851,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="18">
-        <f>F24*G24</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="I24" s="20" t="s">
@@ -2862,7 +2867,7 @@
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="25" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22" t="s">
         <v>88</v>
@@ -2883,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="18">
-        <f>F25*G25</f>
+        <f t="shared" si="3"/>
         <v>1280</v>
       </c>
       <c r="I25" s="20" t="s">
@@ -2894,7 +2899,7 @@
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" x14ac:dyDescent="0.1">
+    <row r="26" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22" t="s">
@@ -2909,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="18">
-        <f>F26*G26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="20" t="s">
@@ -2920,7 +2925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2933,7 +2938,7 @@
       <c r="J27" s="15"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="14.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>11</v>
       </c>
@@ -2951,17 +2956,17 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.1"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.1">
+    <row r="29" spans="1:11" ht="12" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.1">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.1">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.1">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I47" s="10"/>
     </row>
   </sheetData>
